--- a/analysis/supplementary-materials/Table_S8.xlsx
+++ b/analysis/supplementary-materials/Table_S8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aymeric.hermann/Documents/Github/polynesianoutliersvoyaging/analysis/supplementary-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0EBDD-C16A-A341-BABF-7D2128DACD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104BEBA-74D0-E847-9D8D-FC584529F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="500" windowWidth="16300" windowHeight="19800" xr2:uid="{8CADD4F0-211F-C640-978B-A9247843CE74}"/>
+    <workbookView xWindow="2320" yWindow="500" windowWidth="26480" windowHeight="16200" xr2:uid="{8CADD4F0-211F-C640-978B-A9247843CE74}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S8" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Island</t>
   </si>
@@ -98,6 +98,12 @@
     <t>Vanuatu Arc or Luzon Arc</t>
   </si>
   <si>
+    <t>Assigned Source based on isotopic composition (Volcanic Arc / Island Group)</t>
+  </si>
+  <si>
+    <t>Assigned Source based on elemental composition (Island Group : Island : Locality)</t>
+  </si>
+  <si>
     <t>Vanuatu : Emae</t>
   </si>
   <si>
@@ -110,28 +116,124 @@
     <t>Vanuatu Arc or Fiji-Tonga Arc</t>
   </si>
   <si>
-    <t>Bismarck Arc</t>
-  </si>
-  <si>
-    <t>New Britain : Manam Island or Dakatau</t>
-  </si>
-  <si>
     <t>Philippines : Cebu or Vanuatu : Vanua Lava or Yap : Palau Island</t>
   </si>
   <si>
-    <t>Assigned Source based on isotopic composition 
-(Volcanic Arc / Island Group)</t>
-  </si>
-  <si>
-    <t>Assigned Source based on elemental composition 
-(Island Group : Island : Locality)</t>
+    <t>Samoan Islands</t>
+  </si>
+  <si>
+    <t>Caroline Islands</t>
+  </si>
+  <si>
+    <t>Little or no data available for Yap Arc / Palau, which could be the actual source.</t>
+  </si>
+  <si>
+    <t>Most compatible source samples and bibliographical reference</t>
+  </si>
+  <si>
+    <t>Samoa : Tutuila : Tatagamatau</t>
+  </si>
+  <si>
+    <t>No isotopic data available for the obsidian sources of North Vanuatu.</t>
+  </si>
+  <si>
+    <t>Little isotopic data available for the Bismarck Arc with the range of 206Pb/204Pb values around K-12-28.</t>
+  </si>
+  <si>
+    <t>Bismarck Arc : Manam Island or 
+Bismarck Arc : New Britain : Dakatau</t>
+  </si>
+  <si>
+    <t>[1] C. Reepmeyer, Characterising volcanic glass sources in the Banks Islands, Vanuatu. Archaeology in Oceania. 43, 120–127 (2008).</t>
+  </si>
+  <si>
+    <t>No clear match</t>
+  </si>
+  <si>
+    <t>[2] K. D. Collerson, M. I. Weisler, Stone adze compositions and the extent of ancient polynesian voyaging and trade. Science. 317, 1907–1911 (2007).</t>
+  </si>
+  <si>
+    <t>E-11-11 [This paper]</t>
+  </si>
+  <si>
+    <t>[3] D. P. Mattey, The minor and trace element geochemistry of volcanic rocks from Truk, Ponape and Kusaie, Eastern Caroline Islands; the evolution of a young hot spot trace across Old Pacific Ocean Crust. Contr. Mineral. and Petrol. 80, 1–13 (1982).</t>
+  </si>
+  <si>
+    <t>[8] J. D. Woodhead, R. W. Johnson, Isotopic and trace-element profiles across the New Britain island arc, Papua New Guinea. Contr. Mineral. and Petrol. 113, 479–491 (1993).</t>
+  </si>
+  <si>
+    <t>[9] J. D. Woodhead, S. M. Eggins, R. W. Johnson, Magma Genesis in the New Britain Island Arc: Further Insights into Melting and Mass Transfer Processes. Journal of Petrology. 39, 1641–1668 (1998).</t>
+  </si>
+  <si>
+    <t>13440-GN1/4 [8][9]; 634323,634326 [10]</t>
+  </si>
+  <si>
+    <t>[10] H. Cunningham, J. Gill, S. Turner, J. Caulfield, L. Edwards, S. Day, Rapid magmatic processes accompany arc–continent collision: the Western Bismarck arc, Papua New Guinea. Contrib Mineral Petrol. 164, 789–804 (2012).</t>
+  </si>
+  <si>
+    <t>KS094 [11][12]; 70512 [13]; 527523,527524 [14]</t>
+  </si>
+  <si>
+    <t>[11] J. Deng, X. Yang, R. E. Zartman, H. Qi, L. Zhang, H. Liu, Z. Zhang, A. S. Mastoi, A. E. G. Berador, W. Sun, Early cretaceous transformation from Pacific to Neo-Tethys subduction in the SW Pacific Ocean: Constraints from Pb-Sr-Nd-Hf isotopes of the Philippine arc. Geochimica et Cosmochimica Acta. 285, 21–40 (2020).</t>
+  </si>
+  <si>
+    <t>[12] J. Deng, X. Yang, Z.-F. Zhang, M. Santosh, Early Cretaceous arc volcanic suite in Cebu Island, Central Philippines and its implications on paleo-Pacific plate subduction: Constraints from geochemistry, zircon U–Pb geochronology and Lu–Hf isotopes. Lithos. 230, 166–179 (2015).</t>
+  </si>
+  <si>
+    <t>[13] D. W. Peate, J. A. Pearce, C. J. Hawkesworth, H. Colley, C. M. H. Edwards, K. Hirose, Geochemical Variations in Vanuatu Arc Lavas: the Role of Subducted Material and a Variable Mantle Wedge Composition. Journal of Petrology. 38, 1331–1358 (1997).</t>
+  </si>
+  <si>
+    <t>[14] J. W. Hawkins, O. Ishizuka, Petrologic evolution of Palau, a nascent island arc. Island Arc. 18, 599–641 (2009).</t>
+  </si>
+  <si>
+    <t>ANU9005, ANU9007, ANU9014 [1]</t>
+  </si>
+  <si>
+    <t>KC−05−19, KC−05−14 [2]</t>
+  </si>
+  <si>
+    <t>KC−05−19, KC−05−18 [2]</t>
+  </si>
+  <si>
+    <t>[4] M. G. Jackson, A. A. Price, J. Blichert-Toft, M. D. Kurz, A. A. Reinhard, Geochemistry of lavas from the Caroline hotspot, Micronesia: Evidence for primitive and recycled components in the mantle sources of lavas with moderately elevated 3He/4He. Chemical Geology. 455, 385–400 (2017).</t>
+  </si>
+  <si>
+    <t>Caroline : Kosrae or Caroline : Ponape</t>
+  </si>
+  <si>
+    <t>[5] G.-L. Zhang, S. Wang, J. Zhang, M.-J. Zhan, Z.-H. Zhao, Evidence for the essential role of CO2 in the volcanism of the waning Caroline mantle plume. Geochimica et Cosmochimica Acta. 290, 391–407 (2020).</t>
+  </si>
+  <si>
+    <t>34227 [3]; 120903-KOS13-4 [4] ; 
+1867349,1867355 [5]</t>
+  </si>
+  <si>
+    <t>34330-71KAUH-2 [6]; 370017, 370018, 370023, 370024 [7]</t>
+  </si>
+  <si>
+    <t>[6] D. A. Clague, Age and petrology of the Kalaupapa Basalt, Molokai, Hawaii. Pacific Science. 36, 411–420 (1982).</t>
+  </si>
+  <si>
+    <t>[7] J. Dixon, D. A. Clague, B. Cousens, M. L. Monsalve, J. Uhl, Carbonatite and silicate melt metasomatism of the mantle surrounding the Hawaiian plume: Evidence from volatiles, trace elements, and radiogenic isotopes in rejuvenated-stage lavas from Niihau, Hawaii. Geochemistry, Geophysics, Geosystems. 9 (2008), doi:10.1029/2008GC002076.</t>
+  </si>
+  <si>
+    <t>Hawai'i : Moloka'i or Hawai'i : Ni'ihau</t>
+  </si>
+  <si>
+    <t>Caroline : Ponape</t>
+  </si>
+  <si>
+    <t>1175187,1175189 [4], 1867336,1867337 [5]</t>
+  </si>
+  <si>
+    <t>Little data isotopic data in support of Hawai'i as a source.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,9 +261,17 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -209,43 +319,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,215 +691,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF42E7-F512-F94F-8CCF-23BE2C4E9229}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="4" width="56.1640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
